--- a/HK1/NLP/Lab/week1/Assignment1/22127233/output.xlsx
+++ b/HK1/NLP/Lab/week1/Assignment1/22127233/output.xlsx
@@ -1085,8 +1085,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1434,22 +1435,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="14.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="43.8888888888889" customWidth="1"/>
-    <col min="3" max="3" width="18.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="19.2222222222222" customWidth="1"/>
-    <col min="5" max="5" width="42.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="13.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="42.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="20.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="19.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="40.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1465,8 +1466,9 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1482,8 +1484,9 @@
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1499,8 +1502,9 @@
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1516,8 +1520,9 @@
       <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1533,8 +1538,9 @@
       <c r="E5" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -1550,8 +1556,9 @@
       <c r="E6" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -1567,8 +1574,9 @@
       <c r="E7" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -1584,8 +1592,9 @@
       <c r="E8" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
@@ -1601,8 +1610,9 @@
       <c r="E9" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
@@ -1618,8 +1628,9 @@
       <c r="E10" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>50</v>
       </c>
@@ -1635,8 +1646,9 @@
       <c r="E11" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>55</v>
       </c>
@@ -1652,8 +1664,9 @@
       <c r="E12" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>60</v>
       </c>
@@ -1669,8 +1682,9 @@
       <c r="E13" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>65</v>
       </c>
@@ -1686,8 +1700,9 @@
       <c r="E14" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>70</v>
       </c>
@@ -1703,8 +1718,9 @@
       <c r="E15" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>75</v>
       </c>
@@ -1720,8 +1736,9 @@
       <c r="E16" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>80</v>
       </c>
@@ -1737,8 +1754,9 @@
       <c r="E17" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>85</v>
       </c>
@@ -1754,8 +1772,9 @@
       <c r="E18" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>90</v>
       </c>
@@ -1771,8 +1790,9 @@
       <c r="E19" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>95</v>
       </c>
@@ -1788,8 +1808,9 @@
       <c r="E20" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>100</v>
       </c>
@@ -1805,8 +1826,9 @@
       <c r="E21" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>105</v>
       </c>
@@ -1822,8 +1844,9 @@
       <c r="E22" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>110</v>
       </c>
@@ -1839,8 +1862,9 @@
       <c r="E23" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>115</v>
       </c>
@@ -1856,8 +1880,9 @@
       <c r="E24" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>120</v>
       </c>
@@ -1873,6 +1898,7 @@
       <c r="E25" s="1" t="s">
         <v>124</v>
       </c>
+      <c r="F25" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
